--- a/ECE453_DumptruckUltra_Board/Project Outputs for ECE453_DumptruckUltra_Board/ECE453_DumptruckUltra_Board.xlsx
+++ b/ECE453_DumptruckUltra_Board/Project Outputs for ECE453_DumptruckUltra_Board/ECE453_DumptruckUltra_Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\ECE453_DumptruckUltra\ECE453_DumptruckUltra_Board\Project Outputs for ECE453_DumptruckUltra_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243531C9-95BF-4116-8554-281AD6BCD3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBE24F1-C7A8-49FF-A616-23F025CC5140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9D5C061E-19F3-4785-BF5D-22BA45FE01FE}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9919F8E4-2081-4636-8126-8F8ADF679373}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE453_DumptruckUltra_Board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="313">
   <si>
     <t>Line #</t>
   </si>
@@ -95,7 +95,7 @@
     <t>CAP CER 0.1UF 25V X7R 0805</t>
   </si>
   <si>
-    <t>C1, C2, C5, C6, C9, C10, C17, C24, C25, C40</t>
+    <t>C1, C2, C5, C6, C9, C10, C17, C24, C25, C34, C40</t>
   </si>
   <si>
     <t>CMP-1036-04410-2</t>
@@ -125,7 +125,7 @@
     <t>CC0805ZRY5V8BB105</t>
   </si>
   <si>
-    <t>C3, C4, C7, C8, C26, C41</t>
+    <t>C3, C4, C7, C8, C26, C33, C35, C41</t>
   </si>
   <si>
     <t>CMP-1036-04757-2</t>
@@ -173,7 +173,7 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>490-10749-1-ND</t>
+    <t>490-10749-6-ND</t>
   </si>
   <si>
     <t>UWX1E101MCL1GB</t>
@@ -230,13 +230,13 @@
     <t>CAP CER 0.1UF 50V X7R 0805</t>
   </si>
   <si>
-    <t>C31, C33</t>
+    <t>C31</t>
   </si>
   <si>
     <t>CMP-2007-00279-2</t>
   </si>
   <si>
-    <t>399-C0805C104K5RAC7800DKR-ND</t>
+    <t>399-C0805C104K5RAC7800CT-ND</t>
   </si>
   <si>
     <t>08055C103KAT-2A</t>
@@ -255,21 +255,6 @@
   </si>
   <si>
     <t>478-1383-1-ND</t>
-  </si>
-  <si>
-    <t>C2012X5R1H475K125AB</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors 4.7μF ±10% 50V X5R SMD 0805</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>CMP-08246-000007-2</t>
-  </si>
-  <si>
-    <t>445-5980-1-ND</t>
   </si>
   <si>
     <t>BAT54CWT1G</t>
@@ -1368,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F89C29-4E5E-4938-8D07-CCF9695D9192}">
-  <dimension ref="A1:O55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66811D1-0BE7-455B-ADA7-650E49C6C320}">
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1483,7 +1468,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>0.61</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1509,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1527,10 +1512,10 @@
         <v>32</v>
       </c>
       <c r="N3" s="1">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="O3" s="1">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1791,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>59</v>
@@ -1812,7 +1797,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1877,7 +1862,7 @@
         <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
@@ -1886,42 +1871,38 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.43</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>30</v>
@@ -1930,13 +1911,13 @@
         <v>21</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>24</v>
@@ -1945,42 +1926,46 @@
         <v>25</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="K13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1988,13 +1973,13 @@
         <v>25</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N13" s="1">
-        <v>0.251</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="1">
-        <v>3.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2002,32 +1987,32 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="K14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2035,13 +2020,13 @@
         <v>25</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" s="1">
-        <v>0.2</v>
+        <v>1.32</v>
       </c>
       <c r="O14" s="1">
-        <v>0.2</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2049,32 +2034,32 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="K15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2082,13 +2067,13 @@
         <v>25</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N15" s="1">
-        <v>1.32</v>
+        <v>0.3</v>
       </c>
       <c r="O15" s="1">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2096,32 +2081,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1">
-        <v>7</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="K16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2129,13 +2114,13 @@
         <v>25</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N16" s="1">
-        <v>0.3</v>
+        <v>1.02</v>
       </c>
       <c r="O16" s="1">
-        <v>2.1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2143,16 +2128,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>30</v>
@@ -2164,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>24</v>
@@ -2176,13 +2161,13 @@
         <v>25</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N17" s="1">
-        <v>1.02</v>
+        <v>0.69</v>
       </c>
       <c r="O17" s="1">
-        <v>1.02</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2190,16 +2175,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>30</v>
@@ -2211,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>24</v>
@@ -2226,10 +2211,10 @@
         <v>118</v>
       </c>
       <c r="N18" s="1">
-        <v>0.69</v>
+        <v>1.29</v>
       </c>
       <c r="O18" s="1">
-        <v>0.69</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2237,31 +2222,27 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>24</v>
@@ -2273,10 +2254,10 @@
         <v>123</v>
       </c>
       <c r="N19" s="1">
-        <v>1.29</v>
+        <v>0.66</v>
       </c>
       <c r="O19" s="1">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2284,28 +2265,32 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="K20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2313,13 +2298,13 @@
         <v>25</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N20" s="1">
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="O20" s="1">
-        <v>1.32</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2327,16 +2312,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
@@ -2348,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>24</v>
@@ -2360,13 +2345,13 @@
         <v>25</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N21" s="1">
-        <v>0.18</v>
+        <v>1.35</v>
       </c>
       <c r="O21" s="1">
-        <v>0.18</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2374,16 +2359,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
@@ -2395,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>24</v>
@@ -2410,10 +2395,10 @@
         <v>140</v>
       </c>
       <c r="N22" s="1">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="O22" s="1">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2433,7 +2418,7 @@
         <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -2442,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>25</v>
@@ -2457,10 +2442,10 @@
         <v>145</v>
       </c>
       <c r="N23" s="1">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="O23" s="1">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2480,7 +2465,7 @@
         <v>149</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -2489,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>146</v>
@@ -2497,18 +2482,10 @@
       <c r="K24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.19</v>
-      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2527,27 +2504,35 @@
         <v>154</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>151</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2572,16 +2557,16 @@
         <v>21</v>
       </c>
       <c r="H26" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>156</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>25</v>
@@ -2590,10 +2575,10 @@
         <v>160</v>
       </c>
       <c r="N26" s="1">
-        <v>0.113</v>
+        <v>0.26</v>
       </c>
       <c r="O26" s="1">
-        <v>1.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2619,10 +2604,10 @@
         <v>21</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>161</v>
@@ -2634,13 +2619,13 @@
         <v>25</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N27" s="1">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="O27" s="1">
-        <v>0.26</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2648,16 +2633,16 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>30</v>
@@ -2666,13 +2651,13 @@
         <v>21</v>
       </c>
       <c r="H28" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>70</v>
@@ -2684,10 +2669,10 @@
         <v>171</v>
       </c>
       <c r="N28" s="1">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="O28" s="1">
-        <v>2.17</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2713,16 +2698,16 @@
         <v>21</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>172</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>25</v>
@@ -2731,10 +2716,10 @@
         <v>176</v>
       </c>
       <c r="N29" s="1">
-        <v>0.42</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O29" s="1">
-        <v>0.42</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2760,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="H30" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>31</v>
@@ -2778,10 +2763,10 @@
         <v>181</v>
       </c>
       <c r="N30" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O30" s="1">
-        <v>0.59399999999999997</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2801,16 +2786,16 @@
         <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>182</v>
@@ -2822,13 +2807,13 @@
         <v>25</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N31" s="1">
         <v>0.1</v>
       </c>
       <c r="O31" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2836,11 +2821,9 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>189</v>
       </c>
@@ -2848,7 +2831,7 @@
         <v>190</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
@@ -2860,7 +2843,7 @@
         <v>191</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>24</v>
@@ -2885,12 +2868,14 @@
       <c r="B33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>30</v>
@@ -2902,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>24</v>
@@ -2914,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N33" s="1">
         <v>0.1</v>
@@ -2928,19 +2913,19 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -2949,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>24</v>
@@ -2996,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>204</v>
@@ -3008,13 +2993,13 @@
         <v>25</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N35" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="O35" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3022,16 +3007,16 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
@@ -3040,13 +3025,13 @@
         <v>21</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>24</v>
@@ -3058,10 +3043,10 @@
         <v>214</v>
       </c>
       <c r="N36" s="1">
-        <v>0.24</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O36" s="1">
-        <v>0.24</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3087,10 +3072,10 @@
         <v>21</v>
       </c>
       <c r="H37" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>215</v>
@@ -3105,10 +3090,10 @@
         <v>219</v>
       </c>
       <c r="N37" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.17</v>
       </c>
       <c r="O37" s="1">
-        <v>0.73699999999999999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3128,16 +3113,16 @@
         <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>220</v>
@@ -3152,10 +3137,10 @@
         <v>224</v>
       </c>
       <c r="N38" s="1">
-        <v>0.17</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O38" s="1">
-        <v>0.34</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3181,16 +3166,16 @@
         <v>21</v>
       </c>
       <c r="H39" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>225</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>25</v>
@@ -3199,10 +3184,10 @@
         <v>229</v>
       </c>
       <c r="N39" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.36</v>
       </c>
       <c r="O39" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3222,22 +3207,22 @@
         <v>233</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>230</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>25</v>
@@ -3246,10 +3231,10 @@
         <v>234</v>
       </c>
       <c r="N40" s="1">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="O40" s="1">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3269,7 +3254,7 @@
         <v>238</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -3284,7 +3269,7 @@
         <v>235</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>25</v>
@@ -3293,10 +3278,10 @@
         <v>239</v>
       </c>
       <c r="N41" s="1">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="O41" s="1">
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3325,13 +3310,13 @@
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>240</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>25</v>
@@ -3340,10 +3325,10 @@
         <v>244</v>
       </c>
       <c r="N42" s="1">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="O42" s="1">
-        <v>0.72</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3372,25 +3357,25 @@
         <v>2</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>245</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N43" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="O43" s="1">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3398,16 +3383,16 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>30</v>
@@ -3416,28 +3401,28 @@
         <v>21</v>
       </c>
       <c r="H44" s="1">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N44" s="1">
-        <v>0.13</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="O44" s="1">
-        <v>0.26</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3445,32 +3430,32 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="1">
-        <v>72</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="K45" s="2" t="s">
         <v>24</v>
       </c>
@@ -3478,13 +3463,13 @@
         <v>25</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N45" s="1">
-        <v>0.27360000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="O45" s="1">
-        <v>19.7</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3492,46 +3477,42 @@
         <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="K46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>267</v>
       </c>
       <c r="N46" s="1">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="O46" s="1">
-        <v>2.42</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3547,34 +3528,38 @@
       <c r="D47" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>268</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N47" s="1">
-        <v>1.56</v>
+        <v>1.02</v>
       </c>
       <c r="O47" s="1">
-        <v>4.68</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3582,31 +3567,31 @@
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>24</v>
@@ -3618,10 +3603,10 @@
         <v>278</v>
       </c>
       <c r="N48" s="1">
-        <v>1.02</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O48" s="1">
-        <v>2.04</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3637,38 +3622,34 @@
       <c r="D49" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="1">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="M49" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N49" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="O49" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3676,42 +3657,46 @@
         <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H50" s="1">
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>70</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N50" s="1">
-        <v>1.5</v>
+        <v>8.26</v>
       </c>
       <c r="O50" s="1">
-        <v>1.5</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3719,16 +3704,16 @@
         <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
@@ -3737,16 +3722,16 @@
         <v>21</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>25</v>
@@ -3755,10 +3740,10 @@
         <v>295</v>
       </c>
       <c r="N51" s="1">
-        <v>8.26</v>
+        <v>0.53</v>
       </c>
       <c r="O51" s="1">
-        <v>8.26</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3778,16 +3763,16 @@
         <v>299</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>296</v>
@@ -3799,13 +3784,13 @@
         <v>25</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N52" s="1">
-        <v>0.53</v>
+        <v>2.34</v>
       </c>
       <c r="O52" s="1">
-        <v>1.06</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3813,16 +3798,16 @@
         <v>15</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>30</v>
@@ -3834,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>24</v>
@@ -3849,10 +3834,10 @@
         <v>306</v>
       </c>
       <c r="N53" s="1">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="O53" s="1">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3881,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>307</v>
@@ -3893,59 +3878,12 @@
         <v>25</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N54" s="1">
-        <v>2.14</v>
+        <v>0.84</v>
       </c>
       <c r="O54" s="1">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N55" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="O55" s="1">
         <v>0.84</v>
       </c>
     </row>

--- a/ECE453_DumptruckUltra_Board/Project Outputs for ECE453_DumptruckUltra_Board/ECE453_DumptruckUltra_Board.xlsx
+++ b/ECE453_DumptruckUltra_Board/Project Outputs for ECE453_DumptruckUltra_Board/ECE453_DumptruckUltra_Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\ECE453_DumptruckUltra\ECE453_DumptruckUltra_Board\Project Outputs for ECE453_DumptruckUltra_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBE24F1-C7A8-49FF-A616-23F025CC5140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A65A0D8-2B96-4411-81A5-6666B965F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9919F8E4-2081-4636-8126-8F8ADF679373}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A26E79D9-0F8F-4AF2-B7B5-71B912077664}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE453_DumptruckUltra_Board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="281">
   <si>
     <t>Line #</t>
   </si>
@@ -95,7 +95,7 @@
     <t>CAP CER 0.1UF 25V X7R 0805</t>
   </si>
   <si>
-    <t>C1, C2, C5, C6, C9, C10, C17, C24, C25, C34, C40</t>
+    <t>C1, C2, C5, C6, C9, C10, C17, C24, C25, C40</t>
   </si>
   <si>
     <t>CMP-1036-04410-2</t>
@@ -125,7 +125,7 @@
     <t>CC0805ZRY5V8BB105</t>
   </si>
   <si>
-    <t>C3, C4, C7, C8, C26, C33, C35, C41</t>
+    <t>C3, C4, C7, C8, C26, C33, C41</t>
   </si>
   <si>
     <t>CMP-1036-04757-2</t>
@@ -173,7 +173,7 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>490-10749-6-ND</t>
+    <t>490-10749-1-ND</t>
   </si>
   <si>
     <t>UWX1E101MCL1GB</t>
@@ -206,355 +206,331 @@
     <t>478-11894-1-ND</t>
   </si>
   <si>
-    <t>C0805C470J5GACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 47PF 50V C0G/NP0 0805</t>
+    <t>UUD1A102MNL1GS</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitor, UD Series, Low Impedance, 1000 uF, 10 V, + / - 20%, -55 to 105 degC, Chip Type, 10 x 10 mm D x L, Pb-Free, Reel</t>
   </si>
   <si>
     <t>C29, C30</t>
   </si>
   <si>
-    <t>CMP-2007-00435-2</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>399-C0805C470J5GAC7800CT-ND</t>
-  </si>
-  <si>
-    <t>C0805C104K5RACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 50V X7R 0805</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>CMP-2007-00279-2</t>
-  </si>
-  <si>
-    <t>399-C0805C104K5RAC7800CT-ND</t>
-  </si>
-  <si>
-    <t>08055C103KAT-2A</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>CMP-2007-04363-1</t>
-  </si>
-  <si>
-    <t>08055C103KAT2A/4K</t>
+    <t>CMP-0687-00006-1</t>
+  </si>
+  <si>
+    <t>493-2254-1-ND</t>
+  </si>
+  <si>
+    <t>BAR43CFILM</t>
+  </si>
+  <si>
+    <t>DIODE ARRAY SCHOTTKY 30V SOT23-3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>CMP-12187-000004-1</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Not Recommended for New Design</t>
+  </si>
+  <si>
+    <t>497-2520-1-ND</t>
+  </si>
+  <si>
+    <t>HSMG-C170</t>
+  </si>
+  <si>
+    <t>Chip LED, Green, 2.2 V, -40 to 85 degC, 2-Pin SMD, Pb-Free, Tape and Reel</t>
+  </si>
+  <si>
+    <t>DS1, DS2, DS3, DS4, DS5, DS6, DS7, DS9, DS10, DS11, DS12</t>
+  </si>
+  <si>
+    <t>CMP-2000-05062-1</t>
+  </si>
+  <si>
+    <t>Broadcom Avago</t>
+  </si>
+  <si>
+    <t>516-1434-1-ND</t>
+  </si>
+  <si>
+    <t>1729128</t>
+  </si>
+  <si>
+    <t>PCB Terminal Block, 13.5 A, 400 V, 2-Pin THD, RoHS, Bulk</t>
+  </si>
+  <si>
+    <t>J1, J2</t>
+  </si>
+  <si>
+    <t>CMP-2000-05815-1</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>277-1247-ND</t>
+  </si>
+  <si>
+    <t>951103-8622-AR</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 3POS 2MM</t>
+  </si>
+  <si>
+    <t>J3, J4, J5, J6, J7, J8, J9</t>
+  </si>
+  <si>
+    <t>CMP-05379-000003-1</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>3M156413-03-ND</t>
+  </si>
+  <si>
+    <t>694108301002</t>
+  </si>
+  <si>
+    <t>CONN PWR JACK 2.5X5.5MM SOLDER</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>CMP-1502-00190-2</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>732-5934-ND</t>
+  </si>
+  <si>
+    <t>PPTC052LFBN-RC</t>
+  </si>
+  <si>
+    <t>Receptacle, Pitch 2.54 mm, 2 x 5 Position, Height 8.5 mm, Tail Length 3.2 mm, -40 to 105 degC, RoHS</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>CMP-2000-06912-1</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>S6105-ND</t>
+  </si>
+  <si>
+    <t>ShuntHeader</t>
+  </si>
+  <si>
+    <t>Conn Mini Shunt 2 POS 2.54mm Black Cable Mount</t>
+  </si>
+  <si>
+    <t>J12, J14, J15, J16, J17, J18, J19, J20</t>
+  </si>
+  <si>
+    <t>Not managed</t>
+  </si>
+  <si>
+    <t>Kycon</t>
+  </si>
+  <si>
+    <t>SX1100-B</t>
+  </si>
+  <si>
+    <t>2092-SX1100-B-ND</t>
+  </si>
+  <si>
+    <t>Female, 6C, Rt Angle, .100"CC; 3.15mm Tail, No Mounting; PBT, Phos. Bronze, 105 C</t>
+  </si>
+  <si>
+    <t>J13, J201</t>
+  </si>
+  <si>
+    <t>PPPC061LGBN-RC</t>
+  </si>
+  <si>
+    <t>S5481-ND</t>
+  </si>
+  <si>
+    <t>SDR0403-120ML</t>
+  </si>
+  <si>
+    <t>SDR0403 Series Power Inductor, 12 uF +/- 20 %, 0.21 Ohm, -40 to 125 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>CMP-0904-00022-1</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SDR0403-120MLCT-ND</t>
+  </si>
+  <si>
+    <t>SRP4020TA-8R2M</t>
+  </si>
+  <si>
+    <t>FIXED IND 8.2UH 2A 180 MOHM SMD</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>CMP-07248-000032-1</t>
+  </si>
+  <si>
+    <t>SRP4020TA-8R2MCT-ND</t>
+  </si>
+  <si>
+    <t>LBR2012T100K</t>
+  </si>
+  <si>
+    <t>SMD Inductors 10uH ±10% 0.15A 0.468Ω 0805</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>CMP-14484-000421-1</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>587-2045-1-ND</t>
+  </si>
+  <si>
+    <t>150080GS75000</t>
+  </si>
+  <si>
+    <t>SMD mono-color Chip LED, WL-SMCW, Green</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>CMP-1426-00007-1</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>478-1383-1-ND</t>
-  </si>
-  <si>
-    <t>BAT54CWT1G</t>
-  </si>
-  <si>
-    <t>Dual Series Cathode Schottky Barrier Diodes, 3-Pin SOT-323, Pb-Free, Tape and Reel</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>CMP-1055-00557-1</t>
+    <t>732-4983-1-ND</t>
+  </si>
+  <si>
+    <t>CYBLE-416045-02</t>
+  </si>
+  <si>
+    <t>RF TXRX MOD BLUETOOTH TRACE ANT</t>
+  </si>
+  <si>
+    <t>MD1</t>
+  </si>
+  <si>
+    <t>CMP-12964-000002-1</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>61300211121</t>
+  </si>
+  <si>
+    <t>THT Vertical Pin Header WR-PHD, Pitch 2.54 mm, Single Row, 2 pins</t>
+  </si>
+  <si>
+    <t>P1, P3, P4, P5, P6, P8, P9, P10, P11</t>
+  </si>
+  <si>
+    <t>CMP-1712-00002-4</t>
+  </si>
+  <si>
+    <t>732-5315-ND</t>
+  </si>
+  <si>
+    <t>61300511121</t>
+  </si>
+  <si>
+    <t>THT Vertical Pin Header WR-PHD, Pitch 2.54 mm, Single Row, 5 pins</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>CMP-1502-01068-1</t>
+  </si>
+  <si>
+    <t>732-5318-ND</t>
+  </si>
+  <si>
+    <t>BSS138W-7-F</t>
+  </si>
+  <si>
+    <t>N-Channel Enhancement Mode Mosfet, 50 V, 200 mA, -55 to 150 degC, 6-Pin SOT-323, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7</t>
+  </si>
+  <si>
+    <t>CMP-2000-05968-1</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>BSS138W-FDICT-ND</t>
+  </si>
+  <si>
+    <t>FDC653N</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 5A SSOT-6</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>CMP-07173-000050-1</t>
   </si>
   <si>
     <t>ON Semiconductor / Fairchild</t>
   </si>
   <si>
-    <t>BAT54CWT1GOSCT-ND</t>
-  </si>
-  <si>
-    <t>HSMG-C170</t>
-  </si>
-  <si>
-    <t>Chip LED, Green, 2.2 V, -40 to 85 degC, 2-Pin SMD, Pb-Free, Tape and Reel</t>
-  </si>
-  <si>
-    <t>DS1, DS2, DS3, DS4, DS5, DS6, DS7, DS8, DS9, DS10, DS11, DS12, DS13</t>
-  </si>
-  <si>
-    <t>CMP-2000-05062-1</t>
-  </si>
-  <si>
-    <t>Broadcom Avago</t>
-  </si>
-  <si>
-    <t>516-1434-1-ND</t>
-  </si>
-  <si>
-    <t>MI0805K400R-10</t>
-  </si>
-  <si>
-    <t>FERRITE BEAD 40 OHM 0805 1LN</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>CMP-2000-06702-2</t>
-  </si>
-  <si>
-    <t>Laird</t>
-  </si>
-  <si>
-    <t>240-2389-1-ND</t>
-  </si>
-  <si>
-    <t>1729128</t>
-  </si>
-  <si>
-    <t>PCB Terminal Block, 13.5 A, 400 V, 2-Pin THD, RoHS, Bulk</t>
-  </si>
-  <si>
-    <t>J1, J2</t>
-  </si>
-  <si>
-    <t>CMP-2000-05815-1</t>
-  </si>
-  <si>
-    <t>Phoenix Contact</t>
-  </si>
-  <si>
-    <t>277-1247-ND</t>
-  </si>
-  <si>
-    <t>951103-8622-AR</t>
-  </si>
-  <si>
-    <t>CONN HEADER VERT 3POS 2MM</t>
-  </si>
-  <si>
-    <t>J3, J4, J5, J6, J7, J8, J9</t>
-  </si>
-  <si>
-    <t>CMP-05379-000003-1</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>3M156413-03-ND</t>
-  </si>
-  <si>
-    <t>694108301002</t>
-  </si>
-  <si>
-    <t>CONN PWR JACK 2.5X5.5MM SOLDER</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>CMP-1502-00190-2</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>732-5934-ND</t>
-  </si>
-  <si>
-    <t>PPTC052LFBN-RC</t>
-  </si>
-  <si>
-    <t>Receptacle, Pitch 2.54 mm, 2 x 5 Position, Height 8.5 mm, Tail Length 3.2 mm, -40 to 105 degC, RoHS</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>CMP-2000-06912-1</t>
-  </si>
-  <si>
-    <t>Sullins</t>
-  </si>
-  <si>
-    <t>S6105-ND</t>
-  </si>
-  <si>
-    <t>629105136821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro USB 2.0 Type B Receptacle WR-COM, Horizontal, SMT, with Pads and Pegs </t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>CMP-1502-03253-1</t>
-  </si>
-  <si>
-    <t>732-3155-1-ND</t>
-  </si>
-  <si>
-    <t>Female, 6C, Rt Angle, .100"CC; 3.15mm Tail, No Mounting; PBT, Phos. Bronze, 105 C</t>
-  </si>
-  <si>
-    <t>J13, J201</t>
-  </si>
-  <si>
-    <t>Not managed</t>
-  </si>
-  <si>
-    <t>PPPC061LGBN-RC</t>
-  </si>
-  <si>
-    <t>S5481-ND</t>
-  </si>
-  <si>
-    <t>LBC2012T220M</t>
-  </si>
-  <si>
-    <t>SMD Inductors 22uH ±20% 0.13A 4.81Ω 0805</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>CMP-14484-000773-1</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>587-5880-1-ND</t>
-  </si>
-  <si>
-    <t>SRP4020TA-8R2M</t>
-  </si>
-  <si>
-    <t>FIXED IND 8.2UH 2A 180 MOHM SMD</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>CMP-07248-000032-1</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>SRP4020TA-8R2MCT-ND</t>
-  </si>
-  <si>
-    <t>LBR2012T100K</t>
-  </si>
-  <si>
-    <t>SMD Inductors 10uH ±10% 0.15A 0.468Ω 0805</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>CMP-14484-000421-1</t>
-  </si>
-  <si>
-    <t>587-2045-1-ND</t>
-  </si>
-  <si>
-    <t>150080GS75000</t>
-  </si>
-  <si>
-    <t>SMD mono-color Chip LED, WL-SMCW, Green</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>CMP-1426-00007-1</t>
-  </si>
-  <si>
-    <t>732-4983-1-ND</t>
-  </si>
-  <si>
-    <t>CYBLE-416045-02</t>
-  </si>
-  <si>
-    <t>RF TXRX MOD BLUETOOTH TRACE ANT</t>
-  </si>
-  <si>
-    <t>MD1</t>
-  </si>
-  <si>
-    <t>CMP-12964-000002-1</t>
-  </si>
-  <si>
-    <t>Cypress</t>
-  </si>
-  <si>
-    <t>61300211121</t>
-  </si>
-  <si>
-    <t>THT Vertical Pin Header WR-PHD, Pitch 2.54 mm, Single Row, 2 pins</t>
-  </si>
-  <si>
-    <t>P1, P3, P4, P5, P6, P7, P8, P9, P10, P11, P12</t>
-  </si>
-  <si>
-    <t>CMP-1712-00002-4</t>
-  </si>
-  <si>
-    <t>732-5315-ND</t>
-  </si>
-  <si>
-    <t>61300511121</t>
-  </si>
-  <si>
-    <t>THT Vertical Pin Header WR-PHD, Pitch 2.54 mm, Single Row, 5 pins</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>CMP-1502-01068-1</t>
-  </si>
-  <si>
-    <t>732-5318-ND</t>
-  </si>
-  <si>
-    <t>BSS138W-7-F</t>
-  </si>
-  <si>
-    <t>N-Channel Enhancement Mode Mosfet, 50 V, 200 mA, -55 to 150 degC, 6-Pin SOT-323, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7</t>
-  </si>
-  <si>
-    <t>CMP-2000-05968-1</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>BSS138W-FDICT-ND</t>
-  </si>
-  <si>
-    <t>FDV303N</t>
-  </si>
-  <si>
-    <t>N-Channel MOSFET Transistor, 8 V VGSS, 25 V VDSS, 0.68 A, -55 to 150 degC, 3-Pin SOT23, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>CMP-2000-05111-1</t>
-  </si>
-  <si>
-    <t>FDV303NCT-ND</t>
+    <t>FDC653NCT-ND</t>
+  </si>
+  <si>
+    <t>ERA6AEB102V</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R1, R3</t>
+  </si>
+  <si>
+    <t>CMP-2001-00581-2</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>P1.0KDACT-ND</t>
   </si>
   <si>
     <t>RC0805FR-0710KL</t>
@@ -563,7 +539,7 @@
     <t>Chip Resistor, 10 KOhm, +/- 1%, 0.125 W, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R26, R28, R39, R58</t>
+    <t>R2, R4, R5, R6, R7, R8, R9, R28, R39, R58</t>
   </si>
   <si>
     <t>CMP-1659-00013-4</t>
@@ -572,13 +548,55 @@
     <t>311-10.0KCRCT-ND</t>
   </si>
   <si>
+    <t>CRCW0805200KFKEA</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>CMP-2001-03660-1</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>541-200KCCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF2212V</t>
+  </si>
+  <si>
+    <t>R11, R18</t>
+  </si>
+  <si>
+    <t>CMP-2001-00049-1</t>
+  </si>
+  <si>
+    <t>P22.1KCCT-ND</t>
+  </si>
+  <si>
+    <t>CRCW0805330RFKEA</t>
+  </si>
+  <si>
+    <t>RES Thick Film, 330Ω, 1%, 0.125W, 100ppm/°C, 0805</t>
+  </si>
+  <si>
+    <t>R12, R13, R23, R24, R25, R29, R61, R65, R66, R67, R69</t>
+  </si>
+  <si>
+    <t>CMP-2001-03823-2</t>
+  </si>
+  <si>
+    <t>541-330CCT-ND</t>
+  </si>
+  <si>
     <t>RC0805FR-07100KL</t>
   </si>
   <si>
     <t>RES 100K OHM 1% 1/8W 0805</t>
   </si>
   <si>
-    <t>R15, R16, R19</t>
+    <t>R16, R19</t>
   </si>
   <si>
     <t>CMP-2100-03668-5</t>
@@ -587,57 +605,6 @@
     <t>311-100KCRCT-ND</t>
   </si>
   <si>
-    <t>CRCW08055K23FKEA</t>
-  </si>
-  <si>
-    <t>RES Thick Film, 5.23kΩ, 1%, 0.125W, 100ppm/°C, 0805</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>CMP-2001-04027-2</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>541-5.23KCCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF2212V</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>CMP-2001-00049-1</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>P22.1KCCT-ND</t>
-  </si>
-  <si>
-    <t>1M8 5% 0805(2012)</t>
-  </si>
-  <si>
-    <t>1M8 0.125W 5% 0805 (2012 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>CMP-1013-00152-1</t>
-  </si>
-  <si>
-    <t>ERJ-6GEYJ185V</t>
-  </si>
-  <si>
-    <t>P1.8MACT-ND</t>
-  </si>
-  <si>
     <t>CRCW080513K7FKEA</t>
   </si>
   <si>
@@ -653,51 +620,21 @@
     <t>541-13.7KCCT-ND</t>
   </si>
   <si>
-    <t>KTR10EZPF5604</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0805 5.6MΩ 1% 0.125W ±100ppm/°C Automotive Paper T/R</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>CMP-08839-031856-1</t>
+    <t>KTR10EZPJ301</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0805 300Ω 5% 0.125W ±200ppm/°C Automotive Paper T/R</t>
+  </si>
+  <si>
+    <t>R27, R57</t>
+  </si>
+  <si>
+    <t>CMP-08839-031445-1</t>
   </si>
   <si>
     <t>Rohm</t>
   </si>
   <si>
-    <t>RHM5.6MAHCT-ND</t>
-  </si>
-  <si>
-    <t>CRCW0805330RFKEA</t>
-  </si>
-  <si>
-    <t>RES Thick Film, 330Ω, 1%, 0.125W, 100ppm/°C, 0805</t>
-  </si>
-  <si>
-    <t>R23, R24, R25, R29, R61, R64, R65, R66, R67, R69, R71</t>
-  </si>
-  <si>
-    <t>CMP-2001-03823-2</t>
-  </si>
-  <si>
-    <t>541-330CCT-ND</t>
-  </si>
-  <si>
-    <t>KTR10EZPJ301</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0805 300Ω 5% 0.125W ±200ppm/°C Automotive Paper T/R</t>
-  </si>
-  <si>
-    <t>R27, R57</t>
-  </si>
-  <si>
-    <t>CMP-08839-031445-1</t>
-  </si>
-  <si>
     <t>RHM300BCT-ND</t>
   </si>
   <si>
@@ -731,36 +668,6 @@
     <t>P100KDACT-ND</t>
   </si>
   <si>
-    <t>CRCW060327R0FKEA</t>
-  </si>
-  <si>
-    <t>RES Thick Film, 27Ω, 1%, 0.1W, 100ppm/°C, 0603</t>
-  </si>
-  <si>
-    <t>R59, R60</t>
-  </si>
-  <si>
-    <t>CMP-2000-03144-2</t>
-  </si>
-  <si>
-    <t>541-27.0HCT-ND</t>
-  </si>
-  <si>
-    <t>ERA6AEB102V</t>
-  </si>
-  <si>
-    <t>RES 1K OHM 0.1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R62, R63</t>
-  </si>
-  <si>
-    <t>CMP-2001-00581-2</t>
-  </si>
-  <si>
-    <t>P1.0KDACT-ND</t>
-  </si>
-  <si>
     <t>ERJ-6GEY0R00V</t>
   </si>
   <si>
@@ -794,13 +701,31 @@
     <t>450-1650-ND</t>
   </si>
   <si>
+    <t>1101M2S3CQE2</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE SPDT 6A 120V</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>CMP-10038-000019-1</t>
+  </si>
+  <si>
+    <t>ITT C&amp;K</t>
+  </si>
+  <si>
+    <t>CKN5001-ND</t>
+  </si>
+  <si>
     <t>5019</t>
   </si>
   <si>
     <t>Test Point, 1 Position SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28, TP29, TP30, TP31, TP32, TP33, TP34, TP35, TP36, TP37, TP38, TP39, TP40, TP41, TP42, TP43, TP44, TP45, TP46, TP47, TP48, TP49, TP50, TP51, TP52, TP53, TP54, TP55, TP56, TP57, TP58, TP59, TP60, TP61, TP62, TP63, TP64, TP65, TP66, TP67, TP68, TP69, TP70, TP71, TP72</t>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28, TP29, TP30, TP31, TP32, TP33, TP34, TP35, TP36, TP37, TP38, TP39, TP40, TP41, TP42, TP43, TP44, TP45, TP46, TP47, TP48, TP49, TP50, TP51, TP52, TP53, TP54, TP59, TP60, TP61, TP62, TP63, TP64, TP65, TP66, TP68, TP69, TP70, TP71</t>
   </si>
   <si>
     <t>CMP-1672-00008-1</t>
@@ -812,22 +737,22 @@
     <t>36-5019CT-ND</t>
   </si>
   <si>
-    <t>DRV8837DSGR</t>
-  </si>
-  <si>
-    <t>IC MOTOR DRIVER PAR 8WSON</t>
+    <t>MotorDrivers</t>
+  </si>
+  <si>
+    <t>35-V, 3.7-A H-bridge motor driver with integrated current regulation &amp; current-sense feedback 8-SO PowerPAD -40 to 150</t>
   </si>
   <si>
     <t>U1, U2</t>
   </si>
   <si>
-    <t>CMP-04915-000004-1</t>
-  </si>
-  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>296-34806-1-ND</t>
+    <t>DRV8231ADDAR</t>
+  </si>
+  <si>
+    <t>296-DRV8231ADDARCT-ND</t>
   </si>
   <si>
     <t>LMR51420YDDCR</t>
@@ -908,9 +833,6 @@
     <t>CMP-12177-000010-1</t>
   </si>
   <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
     <t>497-18367-1-ND</t>
   </si>
   <si>
@@ -927,24 +849,6 @@
   </si>
   <si>
     <t>296-SN74AHC1G08DBV3CT-ND</t>
-  </si>
-  <si>
-    <t>FT231XS-U</t>
-  </si>
-  <si>
-    <t>USB to Full-Handshake UART Interface Chip, UHCI/OHCI/EHCI Compatible, USB 2.0 Compatible, -40 to +85 degC, 20-Pin SSOP, Pb-Free, Tube</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>CMP-0248-00015-2</t>
-  </si>
-  <si>
-    <t>FTDI</t>
-  </si>
-  <si>
-    <t>768-1156-5-ND</t>
   </si>
   <si>
     <t>LMV796QMF/NOPB</t>
@@ -1353,8 +1257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66811D1-0BE7-455B-ADA7-650E49C6C320}">
-  <dimension ref="A1:O54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFBB8CA-A632-4BB4-A82D-3624F001DE8C}">
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1468,7 +1372,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>0.67100000000000004</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1494,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1723,7 +1627,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>21</v>
@@ -1732,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>55</v>
@@ -1744,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="1">
-        <v>0.1</v>
+        <v>0.94</v>
       </c>
       <c r="O8" s="1">
-        <v>0.2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1758,16 +1662,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
@@ -1779,25 +1683,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="O9" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1805,14 +1709,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>30</v>
@@ -1821,28 +1727,28 @@
         <v>21</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10" s="1">
-        <v>0.1</v>
+        <v>0.251</v>
       </c>
       <c r="O10" s="1">
-        <v>0.1</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1850,16 +1756,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>30</v>
@@ -1868,13 +1774,13 @@
         <v>21</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>24</v>
@@ -1883,41 +1789,45 @@
         <v>25</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.64</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>24</v>
@@ -1926,13 +1836,13 @@
         <v>25</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N12" s="1">
-        <v>0.251</v>
+        <v>0.3</v>
       </c>
       <c r="O12" s="1">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1940,19 +1850,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>21</v>
@@ -1961,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>24</v>
@@ -1973,13 +1883,13 @@
         <v>25</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N13" s="1">
-        <v>0.2</v>
+        <v>1.02</v>
       </c>
       <c r="O13" s="1">
-        <v>0.2</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1987,16 +1897,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -2005,13 +1915,13 @@
         <v>21</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>24</v>
@@ -2020,13 +1930,13 @@
         <v>25</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N14" s="1">
-        <v>1.32</v>
+        <v>0.69</v>
       </c>
       <c r="O14" s="1">
-        <v>2.64</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2034,31 +1944,27 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>24</v>
@@ -2067,13 +1973,13 @@
         <v>25</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N15" s="1">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="O15" s="1">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2081,31 +1987,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>24</v>
@@ -2117,10 +2019,10 @@
         <v>107</v>
       </c>
       <c r="N16" s="1">
-        <v>1.02</v>
+        <v>0.66</v>
       </c>
       <c r="O16" s="1">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2164,10 +2066,10 @@
         <v>113</v>
       </c>
       <c r="N17" s="1">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="O17" s="1">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2187,7 +2089,7 @@
         <v>117</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
@@ -2196,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>114</v>
@@ -2211,10 +2113,10 @@
         <v>118</v>
       </c>
       <c r="N18" s="1">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="O18" s="1">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2222,27 +2124,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>24</v>
@@ -2251,13 +2157,13 @@
         <v>25</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N19" s="1">
-        <v>0.66</v>
+        <v>0.13</v>
       </c>
       <c r="O19" s="1">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2265,19 +2171,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -2286,25 +2192,25 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N20" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="O20" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2312,16 +2218,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
@@ -2333,26 +2239,18 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1.35</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2371,16 +2269,16 @@
         <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>136</v>
@@ -2395,10 +2293,10 @@
         <v>140</v>
       </c>
       <c r="N22" s="1">
-        <v>0.13</v>
+        <v>0.113</v>
       </c>
       <c r="O22" s="1">
-        <v>0.13</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2427,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>25</v>
@@ -2442,10 +2340,10 @@
         <v>145</v>
       </c>
       <c r="N23" s="1">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="O23" s="1">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2465,13 +2363,13 @@
         <v>149</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>150</v>
@@ -2480,43 +2378,51 @@
         <v>146</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="1">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>24</v>
@@ -2525,13 +2431,13 @@
         <v>25</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N25" s="1">
-        <v>0.113</v>
+        <v>0.69</v>
       </c>
       <c r="O25" s="1">
-        <v>1.24</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2539,16 +2445,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>30</v>
@@ -2557,28 +2463,28 @@
         <v>21</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N26" s="1">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="O26" s="1">
-        <v>0.26</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2586,16 +2492,16 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>30</v>
@@ -2604,28 +2510,28 @@
         <v>21</v>
       </c>
       <c r="H27" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N27" s="1">
-        <v>0.31</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O27" s="1">
-        <v>2.17</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2633,16 +2539,14 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>30</v>
@@ -2654,25 +2558,25 @@
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N28" s="1">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="O28" s="1">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2680,16 +2584,16 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>30</v>
@@ -2698,13 +2602,13 @@
         <v>21</v>
       </c>
       <c r="H29" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>24</v>
@@ -2713,13 +2617,13 @@
         <v>25</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N29" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O29" s="1">
-        <v>0.59399999999999997</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2727,31 +2631,31 @@
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>24</v>
@@ -2760,13 +2664,13 @@
         <v>25</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N30" s="1">
-        <v>0.1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O30" s="1">
-        <v>0.3</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2774,31 +2678,31 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>24</v>
@@ -2813,7 +2717,7 @@
         <v>0.1</v>
       </c>
       <c r="O31" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2823,15 +2727,17 @@
       <c r="B32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
@@ -2840,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>188</v>
@@ -2878,19 +2784,19 @@
         <v>196</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>24</v>
@@ -2902,10 +2808,10 @@
         <v>198</v>
       </c>
       <c r="N33" s="1">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="O33" s="1">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2925,16 +2831,16 @@
         <v>202</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>199</v>
@@ -2949,10 +2855,10 @@
         <v>203</v>
       </c>
       <c r="N34" s="1">
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O34" s="1">
-        <v>0.1</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2972,7 +2878,7 @@
         <v>207</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -2981,25 +2887,25 @@
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>204</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N35" s="1">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="O35" s="1">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3007,31 +2913,31 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>24</v>
@@ -3040,13 +2946,13 @@
         <v>25</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N36" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O36" s="1">
-        <v>0.73699999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3054,19 +2960,19 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -3075,13 +2981,13 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>25</v>
@@ -3090,10 +2996,10 @@
         <v>219</v>
       </c>
       <c r="N37" s="1">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="O37" s="1">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3113,16 +3019,16 @@
         <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>220</v>
@@ -3134,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N38" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>4.21</v>
       </c>
       <c r="O38" s="1">
-        <v>0.82499999999999996</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3148,16 +3054,16 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>30</v>
@@ -3166,28 +3072,28 @@
         <v>21</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N39" s="1">
-        <v>0.36</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="O39" s="1">
-        <v>0.36</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3195,46 +3101,42 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1">
         <v>2</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N40" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="O40" s="1">
-        <v>0.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3242,46 +3144,42 @@
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="K41" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N41" s="1">
-        <v>0.36</v>
+        <v>1.56</v>
       </c>
       <c r="O41" s="1">
-        <v>0.72</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3289,16 +3187,16 @@
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>30</v>
@@ -3310,10 +3208,10 @@
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>24</v>
@@ -3322,13 +3220,13 @@
         <v>25</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N42" s="1">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="O42" s="1">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3336,46 +3234,46 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="K43" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N43" s="1">
-        <v>0.13</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O43" s="1">
-        <v>0.26</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3383,46 +3281,42 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>254</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N44" s="1">
-        <v>0.27360000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="O44" s="1">
-        <v>19.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,16 +3324,16 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>20</v>
@@ -3448,28 +3342,28 @@
         <v>21</v>
       </c>
       <c r="H45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N45" s="1">
-        <v>1.21</v>
+        <v>8.26</v>
       </c>
       <c r="O45" s="1">
-        <v>2.42</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3477,42 +3371,46 @@
         <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1">
-        <v>3</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N46" s="1">
-        <v>1.56</v>
+        <v>0.53</v>
       </c>
       <c r="O46" s="1">
-        <v>4.68</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3520,16 +3418,16 @@
         <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>30</v>
@@ -3538,13 +3436,13 @@
         <v>21</v>
       </c>
       <c r="H47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>24</v>
@@ -3553,13 +3451,13 @@
         <v>25</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N47" s="1">
-        <v>1.02</v>
+        <v>2.14</v>
       </c>
       <c r="O47" s="1">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3567,19 +3465,19 @@
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -3588,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>24</v>
@@ -3600,290 +3498,12 @@
         <v>25</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N48" s="1">
-        <v>1.1599999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="O48" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N49" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N50" s="1">
-        <v>8.26</v>
-      </c>
-      <c r="O50" s="1">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N52" s="1">
-        <v>2.34</v>
-      </c>
-      <c r="O52" s="1">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="N53" s="1">
-        <v>2.14</v>
-      </c>
-      <c r="O53" s="1">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="O54" s="1">
         <v>0.84</v>
       </c>
     </row>

--- a/ECE453_DumptruckUltra_Board/Project Outputs for ECE453_DumptruckUltra_Board/ECE453_DumptruckUltra_Board.xlsx
+++ b/ECE453_DumptruckUltra_Board/Project Outputs for ECE453_DumptruckUltra_Board/ECE453_DumptruckUltra_Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\ECE453_DumptruckUltra\ECE453_DumptruckUltra_Board\Project Outputs for ECE453_DumptruckUltra_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A65A0D8-2B96-4411-81A5-6666B965F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4F575F-B2CE-4984-8A7C-88B5D5CF0DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A26E79D9-0F8F-4AF2-B7B5-71B912077664}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{AB8586A8-AA14-4ECC-B019-4BF5CCEC011E}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE453_DumptruckUltra_Board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="286">
   <si>
     <t>Line #</t>
   </si>
@@ -356,7 +356,7 @@
     <t>Female, 6C, Rt Angle, .100"CC; 3.15mm Tail, No Mounting; PBT, Phos. Bronze, 105 C</t>
   </si>
   <si>
-    <t>J13, J201</t>
+    <t>J201</t>
   </si>
   <si>
     <t>PPPC061LGBN-RC</t>
@@ -477,6 +477,21 @@
   </si>
   <si>
     <t>732-5318-ND</t>
+  </si>
+  <si>
+    <t>61300611021</t>
+  </si>
+  <si>
+    <t>THT Angled Pin Header WR-PHD, Pitch 2.54 mm, Single Row, 6 pins</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>CMP-1502-01069-1</t>
+  </si>
+  <si>
+    <t>732-5339-ND</t>
   </si>
   <si>
     <t>BSS138W-7-F</t>
@@ -1257,8 +1272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFBB8CA-A632-4BB4-A82D-3624F001DE8C}">
-  <dimension ref="A1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2BC96A-6925-4031-AE3C-B54E6B5F529C}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2016,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>95</v>
@@ -2022,7 +2037,7 @@
         <v>0.66</v>
       </c>
       <c r="O16" s="1">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2347,9 +2362,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>146</v>
       </c>
@@ -2369,28 +2382,28 @@
         <v>21</v>
       </c>
       <c r="H24" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>146</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N24" s="1">
-        <v>0.31</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O24" s="1">
-        <v>2.17</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2398,46 +2411,46 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="N25" s="1">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="O25" s="1">
-        <v>0.69</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2445,46 +2458,46 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="N26" s="1">
-        <v>0.36</v>
+        <v>0.69</v>
       </c>
       <c r="O26" s="1">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2492,16 +2505,16 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>30</v>
@@ -2510,16 +2523,16 @@
         <v>21</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>25</v>
@@ -2528,10 +2541,10 @@
         <v>168</v>
       </c>
       <c r="N27" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.36</v>
       </c>
       <c r="O27" s="1">
-        <v>0.33</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2541,12 +2554,14 @@
       <c r="B28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>30</v>
@@ -2555,10 +2570,10 @@
         <v>21</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>169</v>
@@ -2573,10 +2588,10 @@
         <v>173</v>
       </c>
       <c r="N28" s="1">
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O28" s="1">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2586,9 +2601,7 @@
       <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
         <v>175</v>
       </c>
@@ -2602,10 +2615,10 @@
         <v>21</v>
       </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>174</v>
@@ -2617,13 +2630,13 @@
         <v>25</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N29" s="1">
         <v>0.1</v>
       </c>
       <c r="O29" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2631,10 +2644,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>180</v>
@@ -2643,19 +2656,19 @@
         <v>181</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>24</v>
@@ -2667,10 +2680,10 @@
         <v>182</v>
       </c>
       <c r="N30" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O30" s="1">
-        <v>0.73699999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2690,16 +2703,16 @@
         <v>186</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>183</v>
@@ -2714,10 +2727,10 @@
         <v>187</v>
       </c>
       <c r="N31" s="1">
-        <v>0.1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O31" s="1">
-        <v>0.2</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2737,16 +2750,16 @@
         <v>191</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>188</v>
@@ -2764,7 +2777,7 @@
         <v>0.1</v>
       </c>
       <c r="O32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2790,10 +2803,10 @@
         <v>21</v>
       </c>
       <c r="H33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>193</v>
@@ -2805,13 +2818,13 @@
         <v>25</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N33" s="1">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="O33" s="1">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2819,31 +2832,31 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="1">
-        <v>25</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>24</v>
@@ -2855,10 +2868,10 @@
         <v>203</v>
       </c>
       <c r="N34" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.17</v>
       </c>
       <c r="O34" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2884,16 +2897,16 @@
         <v>21</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>204</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>25</v>
@@ -2902,10 +2915,10 @@
         <v>208</v>
       </c>
       <c r="N35" s="1">
-        <v>0.36</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O35" s="1">
-        <v>0.36</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2931,16 +2944,16 @@
         <v>21</v>
       </c>
       <c r="H36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>209</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>25</v>
@@ -2949,10 +2962,10 @@
         <v>213</v>
       </c>
       <c r="N36" s="1">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="O36" s="1">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2981,25 +2994,25 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>214</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N37" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="O37" s="1">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3007,46 +3020,46 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="N38" s="1">
-        <v>4.21</v>
+        <v>0.13</v>
       </c>
       <c r="O38" s="1">
-        <v>4.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3054,31 +3067,31 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="1">
-        <v>66</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="J39" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>24</v>
@@ -3087,13 +3100,13 @@
         <v>25</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N39" s="1">
-        <v>0.27360000000000001</v>
+        <v>4.21</v>
       </c>
       <c r="O39" s="1">
-        <v>18.059999999999999</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3101,42 +3114,46 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>235</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="N40" s="1">
-        <v>2</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="O40" s="1">
-        <v>4</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3144,13 +3161,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
@@ -3158,28 +3175,28 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>129</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>242</v>
       </c>
       <c r="N41" s="1">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="O41" s="1">
-        <v>4.68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3195,38 +3212,34 @@
       <c r="D42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>243</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N42" s="1">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="O42" s="1">
-        <v>2.04</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3234,31 +3247,31 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>24</v>
@@ -3270,10 +3283,10 @@
         <v>253</v>
       </c>
       <c r="N43" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="O43" s="1">
-        <v>1.1599999999999999</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3289,34 +3302,38 @@
       <c r="D44" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="N44" s="1">
-        <v>1.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O44" s="1">
-        <v>1.5</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3324,46 +3341,42 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>129</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>264</v>
       </c>
       <c r="N45" s="1">
-        <v>8.26</v>
+        <v>1.5</v>
       </c>
       <c r="O45" s="1">
-        <v>8.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3389,16 +3402,16 @@
         <v>21</v>
       </c>
       <c r="H46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>265</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>25</v>
@@ -3407,10 +3420,10 @@
         <v>269</v>
       </c>
       <c r="N46" s="1">
-        <v>0.53</v>
+        <v>8.26</v>
       </c>
       <c r="O46" s="1">
-        <v>1.06</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,16 +3443,16 @@
         <v>273</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>270</v>
@@ -3454,10 +3467,10 @@
         <v>274</v>
       </c>
       <c r="N47" s="1">
-        <v>2.14</v>
+        <v>0.53</v>
       </c>
       <c r="O47" s="1">
-        <v>2.14</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3486,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>275</v>
@@ -3498,12 +3511,59 @@
         <v>25</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="N48" s="1">
+      <c r="C49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N49" s="1">
         <v>0.84</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O49" s="1">
         <v>0.84</v>
       </c>
     </row>
